--- a/literature_research/FS_scopus/FS_RES_filter.xlsx
+++ b/literature_research/FS_scopus/FS_RES_filter.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1274,8 +1274,10 @@
       <c r="E24" t="n">
         <v>1</v>
       </c>
-      <c r="F24" t="n">
-        <v>1</v>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2802,8 +2804,10 @@
       <c r="E67" t="n">
         <v>1</v>
       </c>
-      <c r="F67" t="n">
-        <v>1</v>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3152,8 +3156,10 @@
       <c r="E77" t="n">
         <v>1</v>
       </c>
-      <c r="F77" t="n">
-        <v>1</v>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -5084,8 +5090,10 @@
       <c r="E131" t="n">
         <v>1</v>
       </c>
-      <c r="F131" t="n">
-        <v>1</v>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -5510,8 +5518,10 @@
       <c r="E143" t="n">
         <v>1</v>
       </c>
-      <c r="F143" t="n">
-        <v>1</v>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -5972,8 +5982,10 @@
       <c r="E156" t="n">
         <v>1</v>
       </c>
-      <c r="F156" t="n">
-        <v>1</v>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -6794,8 +6806,10 @@
       <c r="E179" t="n">
         <v>1</v>
       </c>
-      <c r="F179" t="n">
-        <v>1</v>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -7114,8 +7128,10 @@
       <c r="E188" t="n">
         <v>1</v>
       </c>
-      <c r="F188" t="n">
-        <v>1</v>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -7864,8 +7880,10 @@
       <c r="E209" t="n">
         <v>1</v>
       </c>
-      <c r="F209" t="n">
-        <v>1</v>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10038,8 +10056,10 @@
       <c r="E270" t="n">
         <v>1</v>
       </c>
-      <c r="F270" t="n">
-        <v>1</v>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -10322,8 +10342,10 @@
       <c r="E278" t="n">
         <v>1</v>
       </c>
-      <c r="F278" t="n">
-        <v>1</v>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -10500,8 +10522,10 @@
       <c r="E283" t="n">
         <v>1</v>
       </c>
-      <c r="F283" t="n">
-        <v>1</v>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -10782,8 +10806,10 @@
       <c r="E291" t="n">
         <v>1</v>
       </c>
-      <c r="F291" t="n">
-        <v>1</v>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -11388,8 +11414,10 @@
       <c r="E308" t="n">
         <v>1</v>
       </c>
-      <c r="F308" t="n">
-        <v>1</v>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -11530,8 +11558,10 @@
       <c r="E312" t="n">
         <v>1</v>
       </c>
-      <c r="F312" t="n">
-        <v>1</v>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -11992,8 +12022,10 @@
       <c r="E325" t="n">
         <v>1</v>
       </c>
-      <c r="F325" t="n">
-        <v>1</v>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -12382,8 +12414,10 @@
       <c r="E336" t="n">
         <v>1</v>
       </c>
-      <c r="F336" t="n">
-        <v>1</v>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -13666,8 +13700,10 @@
       <c r="E372" t="n">
         <v>1</v>
       </c>
-      <c r="F372" t="n">
-        <v>1</v>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -13914,8 +13950,10 @@
       <c r="E379" t="n">
         <v>1</v>
       </c>
-      <c r="F379" t="n">
-        <v>1</v>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G379" t="inlineStr">
         <is>
@@ -15194,8 +15232,10 @@
       <c r="E415" t="n">
         <v>1</v>
       </c>
-      <c r="F415" t="n">
-        <v>1</v>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -17534,8 +17574,10 @@
       <c r="E481" t="n">
         <v>1</v>
       </c>
-      <c r="F481" t="n">
-        <v>1</v>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -17926,8 +17968,10 @@
       <c r="E492" t="n">
         <v>1</v>
       </c>
-      <c r="F492" t="n">
-        <v>1</v>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G492" t="inlineStr">
         <is>
@@ -19376,8 +19420,10 @@
       <c r="E533" t="n">
         <v>1</v>
       </c>
-      <c r="F533" t="n">
-        <v>1</v>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G533" t="inlineStr">
         <is>
@@ -19410,8 +19456,10 @@
       <c r="E534" t="n">
         <v>1</v>
       </c>
-      <c r="F534" t="n">
-        <v>1</v>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G534" t="inlineStr">
         <is>
@@ -19480,8 +19528,10 @@
       <c r="E536" t="n">
         <v>1</v>
       </c>
-      <c r="F536" t="n">
-        <v>1</v>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G536" t="inlineStr">
         <is>
@@ -21002,8 +21052,10 @@
       <c r="E579" t="n">
         <v>1</v>
       </c>
-      <c r="F579" t="n">
-        <v>1</v>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G579" t="inlineStr">
         <is>
@@ -22530,8 +22582,10 @@
       <c r="E622" t="n">
         <v>1</v>
       </c>
-      <c r="F622" t="n">
-        <v>1</v>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G622" t="inlineStr">
         <is>
@@ -23382,8 +23436,10 @@
       <c r="E646" t="n">
         <v>1</v>
       </c>
-      <c r="F646" t="n">
-        <v>1</v>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G646" t="inlineStr">
         <is>
@@ -23766,8 +23822,10 @@
       <c r="E657" t="n">
         <v>1</v>
       </c>
-      <c r="F657" t="n">
-        <v>1</v>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G657" t="inlineStr">
         <is>
@@ -26136,8 +26194,10 @@
       <c r="E724" t="n">
         <v>1</v>
       </c>
-      <c r="F724" t="n">
-        <v>1</v>
+      <c r="F724" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G724" t="inlineStr">
         <is>
@@ -27290,8 +27350,10 @@
       <c r="E757" t="n">
         <v>1</v>
       </c>
-      <c r="F757" t="n">
-        <v>1</v>
+      <c r="F757" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G757" t="inlineStr">
         <is>
@@ -27324,8 +27386,10 @@
       <c r="E758" t="n">
         <v>1</v>
       </c>
-      <c r="F758" t="n">
-        <v>1</v>
+      <c r="F758" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
       </c>
       <c r="G758" t="inlineStr">
         <is>
